--- a/biology/Zoologie/Conochitina/Conochitina.xlsx
+++ b/biology/Zoologie/Conochitina/Conochitina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conochitina est un genre de chitinozoaires de la famille éteinte des Conochitinidae.
 Les espèces sont trouvées dans des terrains datant de l'Ordovicien au Silurien.
@@ -512,17 +524,53 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">†Conochitina rugata Nõlvak 2007[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>†Conochitina rugata Nõlvak 2007.
 * †Conochitina claviformis
 †Conochitina decipiens
 †Conochitina havliceki
 †Conochitina poumoti
 †Conochitina symmetrica
-[réf. nécessaire]
-Noms en synonymie
-* †Conochitina elegans Eisenack, 1931 = †Pistillachitina elegans (Eisenack) — Nõlvak &amp; Bauert, 2006[réf. nécessaire]
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conochitina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conochitina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms en synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* †Conochitina elegans Eisenack, 1931 = †Pistillachitina elegans (Eisenack) — Nõlvak &amp; Bauert, 2006[réf. nécessaire]
 </t>
         </is>
       </c>
